--- a/biology/Médecine/Artère_circonflexe_iliaque_profonde/Artère_circonflexe_iliaque_profonde.xlsx
+++ b/biology/Médecine/Artère_circonflexe_iliaque_profonde/Artère_circonflexe_iliaque_profonde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_circonflexe_iliaque_profonde</t>
+          <t>Artère_circonflexe_iliaque_profonde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'artère circonflexe iliaque profonde est une collatérale née latéralement de l'artère iliaque externe au-dessus du ligament inguinal[1]. Elle permet la vascularisation d'une partie du pelvis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère circonflexe iliaque profonde est une collatérale née latéralement de l'artère iliaque externe au-dessus du ligament inguinal. Elle permet la vascularisation d'une partie du pelvis.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_circonflexe_iliaque_profonde</t>
+          <t>Artère_circonflexe_iliaque_profonde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Origine
-L'artère circonflexe iliaque profonde naît de la face latérale de l'artère iliaque externe passant au-dessus du ligament inguinal. Par opposition avec l'artère circonflexe iliaque superficielle qui naît au-dessous du ligament inguinal et donc provient quant à elle de l'artère fémorale.
-Trajet
-L'artère circonflexe iliaque profonde, une fois naît au niveau du ligament inguinal elle poursuite son trajet dans un dédoublement du fascia iliaque (fascia de chef iliaque du muscle iliopsoas) jusqu’à l’épine iliaque antéro-supérieure. 
-Terminaison
-Elle se finit en deux branches terminales :
-une branche abdominale se ramifiant médialement dans les muscles de la paroi abdominale ;
-une branche iliaque latérale, suivant la crête iliaque en dedans.</t>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère circonflexe iliaque profonde naît de la face latérale de l'artère iliaque externe passant au-dessus du ligament inguinal. Par opposition avec l'artère circonflexe iliaque superficielle qui naît au-dessous du ligament inguinal et donc provient quant à elle de l'artère fémorale.
+</t>
         </is>
       </c>
     </row>
@@ -530,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_circonflexe_iliaque_profonde</t>
+          <t>Artère_circonflexe_iliaque_profonde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vascularisation</t>
+          <t>Description anatomique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Par l’intermédiaire de ses terminales qui vascularisent d'une part :
-la branche abdominale se ramifie dans les muscles de la paroi abdominale et s’anastomose avec l’artère épigastrique inférieure, l’artère épigastrique superficielle et les artérioles lombaires ;
-la branche iliaque longeant la crête iliaque, vascularisant le muscle transverse de l’abdomen. Elle s’anastomose ensuite avec l’artère ilio-lombaire pour former une arcade artérielle vascularisant le muscles de la paroi lombaire et une partie des muscles glutéaux et du muscle tenseur du fascia lata.</t>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère circonflexe iliaque profonde, une fois naît au niveau du ligament inguinal elle poursuite son trajet dans un dédoublement du fascia iliaque (fascia de chef iliaque du muscle iliopsoas) jusqu’à l’épine iliaque antéro-supérieure. 
+</t>
         </is>
       </c>
     </row>
@@ -562,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_circonflexe_iliaque_profonde</t>
+          <t>Artère_circonflexe_iliaque_profonde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +594,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description anatomique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elle se finit en deux branches terminales :
+une branche abdominale se ramifiant médialement dans les muscles de la paroi abdominale ;
+une branche iliaque latérale, suivant la crête iliaque en dedans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Artère_circonflexe_iliaque_profonde</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_circonflexe_iliaque_profonde</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Par l’intermédiaire de ses terminales qui vascularisent d'une part :
+la branche abdominale se ramifie dans les muscles de la paroi abdominale et s’anastomose avec l’artère épigastrique inférieure, l’artère épigastrique superficielle et les artérioles lombaires ;
+la branche iliaque longeant la crête iliaque, vascularisant le muscle transverse de l’abdomen. Elle s’anastomose ensuite avec l’artère ilio-lombaire pour former une arcade artérielle vascularisant le muscles de la paroi lombaire et une partie des muscles glutéaux et du muscle tenseur du fascia lata.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Artère_circonflexe_iliaque_profonde</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_circonflexe_iliaque_profonde</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle peut être utilisée pour des revascularisations chirurgicales lorsque l'artère fémorale ne peut pas être utilisée[2]. Elle est parfois utilisée pour des reconstructions mandibulaires[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle peut être utilisée pour des revascularisations chirurgicales lorsque l'artère fémorale ne peut pas être utilisée. Elle est parfois utilisée pour des reconstructions mandibulaires.
 </t>
         </is>
       </c>
